--- a/DataBase/EnterToDataBase_seminar/homework.xlsx
+++ b/DataBase/EnterToDataBase_seminar/homework.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Задача 2" sheetId="2" r:id="rId2"/>
+    <sheet name="автобусы" sheetId="1" r:id="rId1"/>
+    <sheet name="инфо о сотрудниках" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="235">
   <si>
     <t>Спроектировать БД по общественному транспорту на примере автобусов</t>
   </si>
@@ -717,6 +717,9 @@
   </si>
   <si>
     <t>личный</t>
+  </si>
+  <si>
+    <t>можно оставить id, а эти обе строки вынести в отдельную таблицу</t>
   </si>
 </sst>
 </file>
@@ -768,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -848,13 +851,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -921,6 +933,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1220,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I46"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1776,10 +1791,11 @@
         <f t="shared" ref="A25" si="0">A5</f>
         <v>1</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <f>SUM(A5)+A8+A7+A6</f>
         <v>4</v>
       </c>
+      <c r="C25" s="4"/>
       <c r="G25" s="20" t="s">
         <v>8</v>
       </c>
@@ -1791,10 +1807,11 @@
       <c r="A26" s="6">
         <v>2</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <f>SUM(A9:A12)/A26</f>
         <v>4</v>
       </c>
+      <c r="C26" s="4"/>
       <c r="G26" s="3" t="str">
         <f>G2</f>
         <v>id</v>
@@ -1811,10 +1828,11 @@
       <c r="A27" s="6">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <f>(SUM(A13:A15))/A27</f>
         <v>3</v>
       </c>
+      <c r="C27" s="4"/>
       <c r="G27" s="4" t="str">
         <f>G3</f>
         <v>01</v>
@@ -1830,10 +1848,11 @@
       <c r="A28" s="6">
         <v>4</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <f>SUM(A16:A20)/A28</f>
         <v>5</v>
       </c>
+      <c r="C28" s="4"/>
       <c r="G28" s="4" t="str">
         <f t="shared" ref="G28:G46" si="1">G4</f>
         <v>02</v>
@@ -2449,7 +2468,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3886,8 +3905,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="5:26">
+    <row r="27" spans="5:26" ht="39" customHeight="1">
       <c r="F27" s="8"/>
+      <c r="G27" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H27" s="23"/>
       <c r="V27" s="10"/>
     </row>
     <row r="28" spans="5:26">
@@ -3900,7 +3923,8 @@
       <c r="F30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:C5"/>
